--- a/BoM (Bill of Materials)/FC_RAWMATERIALS_31MAY2022.xlsx
+++ b/BoM (Bill of Materials)/FC_RAWMATERIALS_31MAY2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://minesurvival-my.sharepoint.com/personal/lad_atorlabs_com/Documents/FilterCheck Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{8BF2DD67-92B9-4A22-B89E-D55E1DC7F4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4354718-7DE4-41DC-9420-FBE4066E2C03}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="8_{8BF2DD67-92B9-4A22-B89E-D55E1DC7F4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17377E3B-498F-4A1D-A4A5-3FD4A73A3548}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{6A6AF114-7464-4BD6-BE22-9AFD3CA6EEC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>ITEM #</t>
   </si>
@@ -43,12 +43,6 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>MANUFACTURER</t>
-  </si>
-  <si>
-    <t>MAN P/N</t>
-  </si>
-  <si>
     <t>QTY PER ORDER</t>
   </si>
   <si>
@@ -67,18 +61,9 @@
     <t>CONTROL BOARD SPACERS</t>
   </si>
   <si>
-    <t>ATORLABS</t>
-  </si>
-  <si>
     <t>PLA</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -110,6 +95,27 @@
   </si>
   <si>
     <t>CAD P/N</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>PENDING PRINT</t>
+  </si>
+  <si>
+    <t>PRINT BEGAN</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>PRINT MATERIAL</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>IN STOCK</t>
   </si>
 </sst>
 </file>
@@ -137,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,12 +170,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,230 +222,60 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,344 +591,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF78CD5-B1B9-4288-B4A3-A4E92C4B27B0}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="55.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="J1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
         <v>8</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="G2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="3" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="10" t="s">
+      <c r="J3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5">
         <v>10</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12">
-        <v>24</v>
-      </c>
-      <c r="K2" s="12">
-        <v>4</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="F5" s="5">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H5" s="5">
         <v>12</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="15" t="s">
+      <c r="I5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9">
+    <row r="7" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="16">
-        <v>1</v>
-      </c>
-      <c r="K3" s="16">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="16">
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>23</v>
+      <c r="I8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="16">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16">
-        <v>1</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="16">
-        <v>10</v>
-      </c>
-      <c r="K5" s="16">
-        <v>7</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="16">
-        <v>12</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="16">
-        <v>1</v>
-      </c>
-      <c r="K6" s="16">
-        <v>1</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="16">
-        <v>1</v>
-      </c>
-      <c r="K7" s="16">
-        <v>1</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="19">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21">
-        <v>1</v>
-      </c>
-      <c r="K8" s="21">
-        <v>1</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="21">
-        <v>0</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="1"/>
-    </row>
+    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1081,6 +879,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010021DA309B11C7AF4CA66A9AAE5D9D3FA9" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48beb668acfa1a6a1bf7104ac7047b6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d268e1cc-7369-4931-92a2-fb4cb7ab84fe" xmlns:ns4="c9bba009-7859-4fee-be46-d460c7902dd2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d43c724a570113859007f3fce04648f2" ns3:_="" ns4:_="">
     <xsd:import namespace="d268e1cc-7369-4931-92a2-fb4cb7ab84fe"/>
@@ -1289,15 +1096,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866B9613-C782-4980-9806-300426EC76DC}">
   <ds:schemaRefs>
@@ -1308,6 +1106,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A5718F-FDC7-421D-B701-19E285A3AC01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FA77192-65F6-4352-BFFF-310A2BE2FE7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1324,12 +1130,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A5718F-FDC7-421D-B701-19E285A3AC01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>